--- a/teaching/traditional_assets/database/data/austria/austria_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/austria/austria_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ9"/>
+  <dimension ref="A1:AQ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06425</v>
+        <v>0.00446</v>
       </c>
       <c r="E2">
-        <v>0.125</v>
+        <v>-0.02765</v>
       </c>
       <c r="F2">
-        <v>-0.0612</v>
+        <v>-0.0646</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005961508264746516</v>
+        <v>-0.0001144451647641076</v>
       </c>
       <c r="J2">
-        <v>0.0004962747355984923</v>
+        <v>-8.847814073631339e-05</v>
       </c>
       <c r="K2">
-        <v>4020.3</v>
+        <v>2814.15</v>
       </c>
       <c r="L2">
-        <v>0.2582910375843238</v>
+        <v>0.1834170854271357</v>
       </c>
       <c r="M2">
-        <v>1427.7553</v>
+        <v>214.674</v>
       </c>
       <c r="N2">
-        <v>0.04247451389880527</v>
+        <v>0.007511397047631944</v>
       </c>
       <c r="O2">
-        <v>0.355136507225829</v>
+        <v>0.07628378018229305</v>
       </c>
       <c r="P2">
-        <v>1425.7853</v>
+        <v>203.424</v>
       </c>
       <c r="Q2">
-        <v>0.042415908063211</v>
+        <v>0.007117761969393036</v>
       </c>
       <c r="R2">
-        <v>0.3546464940427331</v>
+        <v>0.07228612547305581</v>
       </c>
       <c r="S2">
-        <v>1.970000000000001</v>
+        <v>11.25</v>
       </c>
       <c r="T2">
-        <v>0.001379788259234619</v>
+        <v>0.05240504206378043</v>
       </c>
       <c r="U2">
-        <v>31409.2</v>
+        <v>51365</v>
       </c>
       <c r="V2">
-        <v>0.9343971631205673</v>
+        <v>1.797250292777024</v>
       </c>
       <c r="W2">
-        <v>0.08119817966460945</v>
+        <v>0.05042514005733149</v>
       </c>
       <c r="X2">
-        <v>0.07683897905777268</v>
+        <v>0.09043401084630437</v>
       </c>
       <c r="Y2">
-        <v>0.004359200606836769</v>
+        <v>-0.04000887078897288</v>
       </c>
       <c r="Z2">
-        <v>0.1612812400351589</v>
+        <v>0.1678989796654271</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04176452603981259</v>
+        <v>0.03553150190675888</v>
       </c>
       <c r="AC2">
-        <v>-0.04149607826861673</v>
+        <v>-0.03566014674615029</v>
       </c>
       <c r="AD2">
-        <v>79708.00999999999</v>
+        <v>88601.71000000001</v>
       </c>
       <c r="AE2">
-        <v>966.0345619296103</v>
+        <v>11.52460359229613</v>
       </c>
       <c r="AF2">
-        <v>80674.04456192961</v>
+        <v>88613.2346035923</v>
       </c>
       <c r="AG2">
-        <v>49264.84456192961</v>
+        <v>37248.2346035923</v>
       </c>
       <c r="AH2">
-        <v>0.7058810264778315</v>
+        <v>0.7561307511769013</v>
       </c>
       <c r="AI2">
-        <v>0.6249836670347906</v>
+        <v>0.6173351486613872</v>
       </c>
       <c r="AJ2">
-        <v>0.5944171525974467</v>
+        <v>0.5658417694398657</v>
       </c>
       <c r="AK2">
-        <v>0.5043873316104706</v>
+        <v>0.4040967125069232</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>393.6470175715851</v>
+        <v>161387.4499089253</v>
       </c>
       <c r="AP2">
-        <v>243.3000037628755</v>
+        <v>67847.42186446684</v>
       </c>
     </row>
     <row r="3">
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.009309717222961002</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.008775891332336923</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>34</v>
+        <v>6.22</v>
       </c>
       <c r="L3">
-        <v>0.136</v>
+        <v>0.02516181229773463</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,61 +761,61 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>998.4</v>
+        <v>1169.2</v>
       </c>
       <c r="V3">
-        <v>3.16952380952381</v>
+        <v>5.602299952084332</v>
+      </c>
+      <c r="W3">
+        <v>0.006658815972593941</v>
       </c>
       <c r="X3">
-        <v>0.04401621133919108</v>
+        <v>0.03454027559477968</v>
+      </c>
+      <c r="Y3">
+        <v>-0.02788145962218574</v>
       </c>
       <c r="Z3">
-        <v>7.079575152520388</v>
+        <v>-4.438857963727783</v>
       </c>
       <c r="AA3">
-        <v>0.06212958221763153</v>
+        <v>-0</v>
       </c>
       <c r="AB3">
-        <v>0.04242203605838388</v>
+        <v>0.03383107923407203</v>
       </c>
       <c r="AC3">
-        <v>0.01970754615924764</v>
+        <v>-0.03383107923407203</v>
       </c>
       <c r="AD3">
-        <v>8.609999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="AE3">
-        <v>35.31285347129875</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>43.92285347129875</v>
+        <v>8.81</v>
       </c>
       <c r="AG3">
-        <v>-954.4771465287013</v>
+        <v>-1160.39</v>
       </c>
       <c r="AH3">
-        <v>0.1223740785700932</v>
+        <v>0.04050388487885615</v>
       </c>
       <c r="AI3">
-        <v>0.04490984368657978</v>
+        <v>0.008856852751053072</v>
       </c>
       <c r="AJ3">
-        <v>1.492589925550783</v>
+        <v>1.219294097868003</v>
       </c>
       <c r="AK3">
-        <v>46.8405694185061</v>
+        <v>6.650180526104644</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>0.9169329073482427</v>
-      </c>
-      <c r="AP3">
-        <v>-101.6482584162621</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bank für Tirol und Vorarlberg AG (WBAG:BTS)</t>
+          <t>BAWAG Group AG (WBAG:BG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +835,10 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0554</v>
+        <v>0.022</v>
       </c>
       <c r="E4">
-        <v>0.0849</v>
+        <v>-0.0234</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -847,103 +847,94 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-0.005681605415796705</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>-0.004467500448968718</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>129.1</v>
+        <v>372.7</v>
       </c>
       <c r="L4">
-        <v>0.4579638169563675</v>
+        <v>0.3402099497946143</v>
       </c>
       <c r="M4">
-        <v>11.0853</v>
+        <v>-0</v>
       </c>
       <c r="N4">
-        <v>0.01009958090379009</v>
+        <v>-0</v>
       </c>
       <c r="O4">
-        <v>0.08586599535243998</v>
+        <v>-0</v>
       </c>
       <c r="P4">
-        <v>11.0853</v>
+        <v>-0</v>
       </c>
       <c r="Q4">
-        <v>0.01009958090379009</v>
+        <v>-0</v>
       </c>
       <c r="R4">
-        <v>0.08586599535243998</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
-        <v>25.7</v>
+        <v>735.1</v>
       </c>
       <c r="V4">
-        <v>0.02341472303206997</v>
+        <v>0.1798365789216166</v>
       </c>
       <c r="W4">
-        <v>0.07395314200607206</v>
+        <v>0.0833668858766161</v>
       </c>
       <c r="X4">
-        <v>0.09383307936155004</v>
+        <v>0.07410659306413557</v>
       </c>
       <c r="Y4">
-        <v>-0.01987993735547798</v>
+        <v>0.009260292812480531</v>
       </c>
       <c r="Z4">
-        <v>0.1054467127491157</v>
+        <v>0.09820972325566801</v>
       </c>
       <c r="AA4">
-        <v>-0.0004710832365489501</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.04077664595553636</v>
+        <v>0.03487542643576318</v>
       </c>
       <c r="AC4">
-        <v>-0.04124772919208531</v>
+        <v>-0.03487542643576318</v>
       </c>
       <c r="AD4">
-        <v>3387.4</v>
+        <v>8986.6</v>
       </c>
       <c r="AE4">
-        <v>10.68822283356545</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>3398.088222833565</v>
+        <v>8986.6</v>
       </c>
       <c r="AG4">
-        <v>3372.388222833566</v>
+        <v>8251.5</v>
       </c>
       <c r="AH4">
-        <v>0.7558549557717775</v>
+        <v>0.6873537195392452</v>
       </c>
       <c r="AI4">
-        <v>0.6432863469112408</v>
+        <v>0.6433797734790018</v>
       </c>
       <c r="AJ4">
-        <v>0.7544512546155611</v>
+        <v>0.6687278650793007</v>
       </c>
       <c r="AK4">
-        <v>0.6415423703815771</v>
+        <v>0.6235688861683556</v>
       </c>
       <c r="AL4">
         <v>0</v>
       </c>
       <c r="AM4">
         <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>6319.776119402984</v>
-      </c>
-      <c r="AP4">
-        <v>6291.769072450682</v>
       </c>
     </row>
     <row r="5">
@@ -963,10 +954,10 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.0731</v>
+        <v>0.0145</v>
       </c>
       <c r="E5">
-        <v>0.158</v>
+        <v>0.0135</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -975,103 +966,97 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-0.008341200515614246</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>-0.007520370099363546</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>96.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="L5">
-        <v>0.3942622950819673</v>
+        <v>0.3222222222222222</v>
       </c>
       <c r="M5">
-        <v>15.07</v>
+        <v>8.59</v>
       </c>
       <c r="N5">
-        <v>0.02012553418803419</v>
+        <v>0.01389517955354254</v>
       </c>
       <c r="O5">
-        <v>0.1566528066528066</v>
+        <v>0.1139257294429708</v>
       </c>
       <c r="P5">
-        <v>13.1</v>
+        <v>4.22</v>
       </c>
       <c r="Q5">
-        <v>0.01749465811965812</v>
+        <v>0.006826269815593658</v>
       </c>
       <c r="R5">
-        <v>0.1361746361746362</v>
+        <v>0.0559681697612732</v>
       </c>
       <c r="S5">
-        <v>1.970000000000001</v>
+        <v>4.37</v>
       </c>
       <c r="T5">
-        <v>0.130723291307233</v>
+        <v>0.5087310826542492</v>
       </c>
       <c r="U5">
-        <v>91.2</v>
+        <v>100.2</v>
       </c>
       <c r="V5">
-        <v>0.1217948717948718</v>
+        <v>0.1620834681332902</v>
       </c>
       <c r="W5">
-        <v>0.06955390065794231</v>
+        <v>0.05394576804750662</v>
       </c>
       <c r="X5">
-        <v>0.08139915028290719</v>
+        <v>0.0975102325246638</v>
       </c>
       <c r="Y5">
-        <v>-0.01184524962496487</v>
+        <v>-0.04356446447715718</v>
       </c>
       <c r="Z5">
-        <v>0.07789862048739069</v>
+        <v>0.07686748571053149</v>
       </c>
       <c r="AA5">
-        <v>-0.0005858264562950415</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.04083982093063496</v>
+        <v>0.03501932871838109</v>
       </c>
       <c r="AC5">
-        <v>-0.04142564738693</v>
+        <v>-0.03501932871838109</v>
       </c>
       <c r="AD5">
-        <v>1737.7</v>
+        <v>2147.6</v>
       </c>
       <c r="AE5">
-        <v>27.97626462904938</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1765.676264629049</v>
+        <v>2147.6</v>
       </c>
       <c r="AG5">
-        <v>1674.476264629049</v>
+        <v>2047.4</v>
       </c>
       <c r="AH5">
-        <v>0.7022043872382835</v>
+        <v>0.7764841998698386</v>
       </c>
       <c r="AI5">
-        <v>0.5581619500568958</v>
+        <v>0.5797430083144369</v>
       </c>
       <c r="AJ5">
-        <v>0.690996849624727</v>
+        <v>0.7680822328931572</v>
       </c>
       <c r="AK5">
-        <v>0.5450456355345986</v>
+        <v>0.5680594861550413</v>
       </c>
       <c r="AL5">
         <v>0</v>
       </c>
       <c r="AM5">
         <v>0</v>
-      </c>
-      <c r="AN5">
-        <v>488.1179775280899</v>
-      </c>
-      <c r="AP5">
-        <v>470.3585013002948</v>
       </c>
     </row>
     <row r="6">
@@ -1082,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Erste Group Bank AG (WBAG:EBS)</t>
+          <t>Bank für Tirol und Vorarlberg AG (WBAG:BTS)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1091,10 +1076,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.08960000000000001</v>
-      </c>
-      <c r="F6">
-        <v>-0.0348</v>
+        <v>-0.0173</v>
+      </c>
+      <c r="E6">
+        <v>-0.0319</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1103,34 +1088,34 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.001988552279278214</v>
+        <v>-0.007905991528407146</v>
       </c>
       <c r="J6">
-        <v>0.001729735397150096</v>
+        <v>-0.00669529540874332</v>
       </c>
       <c r="K6">
-        <v>1949.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="L6">
-        <v>0.2483157371913246</v>
+        <v>0.4025213867627195</v>
       </c>
       <c r="M6">
-        <v>707.7</v>
+        <v>0.33</v>
       </c>
       <c r="N6">
-        <v>0.04605233189955295</v>
+        <v>0.000264975108398908</v>
       </c>
       <c r="O6">
-        <v>0.3629603036208842</v>
+        <v>0.003691275167785235</v>
       </c>
       <c r="P6">
-        <v>707.7</v>
+        <v>0.33</v>
       </c>
       <c r="Q6">
-        <v>0.04605233189955295</v>
+        <v>0.000264975108398908</v>
       </c>
       <c r="R6">
-        <v>0.3629603036208842</v>
+        <v>0.003691275167785235</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1139,55 +1124,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>7266.4</v>
+        <v>94.8</v>
       </c>
       <c r="V6">
-        <v>0.4728481906385637</v>
+        <v>0.07612012204914083</v>
       </c>
       <c r="W6">
-        <v>0.1209298286961807</v>
+        <v>0.04690451206715635</v>
       </c>
       <c r="X6">
-        <v>0.08859528781403421</v>
+        <v>0.09193736915392542</v>
       </c>
       <c r="Y6">
-        <v>0.03233454088214649</v>
+        <v>-0.04503285708676907</v>
       </c>
       <c r="Z6">
-        <v>0.1605141507992408</v>
+        <v>0.0423537744703371</v>
       </c>
       <c r="AA6">
-        <v>0.0002776470083809353</v>
+        <v>-0.0002835710317541981</v>
       </c>
       <c r="AB6">
-        <v>0.04177372527699767</v>
+        <v>0.03499304736540972</v>
       </c>
       <c r="AC6">
-        <v>-0.04149607826861673</v>
+        <v>-0.03527661839716392</v>
       </c>
       <c r="AD6">
-        <v>42447.7</v>
+        <v>3936.7</v>
       </c>
       <c r="AE6">
-        <v>351.4284432393977</v>
+        <v>11.52460359229613</v>
       </c>
       <c r="AF6">
-        <v>42799.12844323939</v>
+        <v>3948.224603592296</v>
       </c>
       <c r="AG6">
-        <v>35532.72844323939</v>
+        <v>3853.424603592296</v>
       </c>
       <c r="AH6">
-        <v>0.7358046486385891</v>
+        <v>0.7602060035031047</v>
       </c>
       <c r="AI6">
-        <v>0.661005423169709</v>
+        <v>0.6635644163905769</v>
       </c>
       <c r="AJ6">
-        <v>0.6980885773543982</v>
+        <v>0.7557476287529927</v>
       </c>
       <c r="AK6">
-        <v>0.6181526224855454</v>
+        <v>0.6581172994163441</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1196,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>494.1525029103608</v>
+        <v>7170.673952641165</v>
       </c>
       <c r="AP6">
-        <v>413.6522519585494</v>
+        <v>7018.988348984144</v>
       </c>
     </row>
     <row r="7">
@@ -1219,10 +1204,10 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0825</v>
+        <v>-0.00735</v>
       </c>
       <c r="E7">
-        <v>0.125</v>
+        <v>-0.09300000000000001</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1237,28 +1222,28 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>260.5</v>
+        <v>111.8</v>
       </c>
       <c r="L7">
-        <v>0.4072221353759575</v>
+        <v>0.216624685138539</v>
       </c>
       <c r="M7">
-        <v>45.5</v>
+        <v>4.06</v>
       </c>
       <c r="N7">
-        <v>0.01205968883352328</v>
+        <v>0.001217208814270724</v>
       </c>
       <c r="O7">
-        <v>0.1746641074856046</v>
+        <v>0.03631484794275492</v>
       </c>
       <c r="P7">
-        <v>45.5</v>
+        <v>4.06</v>
       </c>
       <c r="Q7">
-        <v>0.01205968883352328</v>
+        <v>0.001217208814270724</v>
       </c>
       <c r="R7">
-        <v>0.1746641074856046</v>
+        <v>0.03631484794275492</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1267,55 +1252,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>96.5</v>
+        <v>111.3</v>
       </c>
       <c r="V7">
-        <v>0.02557714225131861</v>
+        <v>0.03336831059811123</v>
       </c>
       <c r="W7">
-        <v>0.08119817966460945</v>
+        <v>0.03480914129148763</v>
       </c>
       <c r="X7">
-        <v>0.07627779042098058</v>
+        <v>0.08893065253868333</v>
       </c>
       <c r="Y7">
-        <v>0.004920389243628864</v>
+        <v>-0.0541215112471957</v>
       </c>
       <c r="Z7">
-        <v>0.06170422100470715</v>
+        <v>0.04750071329302077</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.04176452603981259</v>
+        <v>0.03604367509513667</v>
       </c>
       <c r="AC7">
-        <v>-0.04176452603981259</v>
+        <v>-0.03604367509513667</v>
       </c>
       <c r="AD7">
-        <v>7749.8</v>
+        <v>10027.8</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>7749.8</v>
+        <v>10027.8</v>
       </c>
       <c r="AG7">
-        <v>7653.3</v>
+        <v>9916.5</v>
       </c>
       <c r="AH7">
-        <v>0.6725680613050761</v>
+        <v>0.7503984794175091</v>
       </c>
       <c r="AI7">
-        <v>0.70651192896409</v>
+        <v>0.7393169954879236</v>
       </c>
       <c r="AJ7">
-        <v>0.6698027340673189</v>
+        <v>0.7483021430727438</v>
       </c>
       <c r="AK7">
-        <v>0.7039070691462943</v>
+        <v>0.7371601882206017</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1332,7 +1317,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>BAWAG Group AG (WBAG:BG)</t>
+          <t>Erste Group Bank AG (WBAG:EBS)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1341,10 +1326,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.03759999999999999</v>
+        <v>0.00446</v>
       </c>
       <c r="E8">
-        <v>0.0603</v>
+        <v>0.0187</v>
+      </c>
+      <c r="F8">
+        <v>-0.0539</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1353,100 +1341,97 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.01221054720176813</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>-0.009289607581985344</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>492.1</v>
+        <v>1038.3</v>
       </c>
       <c r="L8">
-        <v>0.4087209302325582</v>
+        <v>0.1425962040266982</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>122.1</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.009868261537218136</v>
       </c>
       <c r="O8">
-        <v>-0</v>
+        <v>0.1175960704998555</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>122.1</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.009868261537218136</v>
       </c>
       <c r="R8">
-        <v>-0</v>
+        <v>0.1175960704998555</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
       <c r="U8">
-        <v>817.8</v>
+        <v>10208</v>
       </c>
       <c r="V8">
-        <v>0.2014484185634053</v>
+        <v>0.825022225814273</v>
       </c>
       <c r="W8">
-        <v>0.1064736682677745</v>
+        <v>0.0618540119025634</v>
       </c>
       <c r="X8">
-        <v>0.07358486663700105</v>
+        <v>0.09862921342241675</v>
       </c>
       <c r="Y8">
-        <v>0.03288880163077341</v>
+        <v>-0.03677520151985335</v>
       </c>
       <c r="Z8">
-        <v>0.1244211999388524</v>
+        <v>0.1401142250171261</v>
       </c>
       <c r="AA8">
-        <v>-0.001155824122311677</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.04089600866659854</v>
+        <v>0.03613198802156145</v>
       </c>
       <c r="AC8">
-        <v>-0.04205183278891021</v>
+        <v>-0.03613198802156145</v>
       </c>
       <c r="AD8">
-        <v>7501.9</v>
+        <v>43737.8</v>
       </c>
       <c r="AE8">
-        <v>188.0074941546442</v>
+        <v>0</v>
       </c>
       <c r="AF8">
-        <v>7689.907494154644</v>
+        <v>43737.8</v>
       </c>
       <c r="AG8">
-        <v>6872.107494154644</v>
+        <v>33529.8</v>
       </c>
       <c r="AH8">
-        <v>0.6544876453741024</v>
+        <v>0.7794898664784676</v>
       </c>
       <c r="AI8">
-        <v>0.6323101200109215</v>
+        <v>0.6346915409385028</v>
       </c>
       <c r="AJ8">
-        <v>0.6286398989205728</v>
+        <v>0.7304521728522008</v>
       </c>
       <c r="AK8">
-        <v>0.6058025488969004</v>
+        <v>0.5711681847373002</v>
       </c>
       <c r="AL8">
         <v>0</v>
       </c>
       <c r="AM8">
         <v>0</v>
-      </c>
-      <c r="AN8">
-        <v>327.5938864628821</v>
-      </c>
-      <c r="AP8">
-        <v>300.0920303124299</v>
       </c>
     </row>
     <row r="9">
@@ -1466,13 +1451,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0194</v>
-      </c>
-      <c r="E9">
-        <v>0.212</v>
+        <v>0.0699</v>
       </c>
       <c r="F9">
-        <v>-0.0876</v>
+        <v>-0.07530000000000001</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1481,34 +1463,34 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.001899700249282201</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.001440967167025726</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1058.6</v>
+        <v>1117.9</v>
       </c>
       <c r="L9">
-        <v>0.2078416743565075</v>
+        <v>0.1960712093308778</v>
       </c>
       <c r="M9">
-        <v>648.4</v>
+        <v>72.5</v>
       </c>
       <c r="N9">
-        <v>0.07856346629186255</v>
+        <v>0.01081282624906786</v>
       </c>
       <c r="O9">
-        <v>0.6125070848290195</v>
+        <v>0.06485374362644243</v>
       </c>
       <c r="P9">
-        <v>648.4</v>
+        <v>72.5</v>
       </c>
       <c r="Q9">
-        <v>0.07856346629186255</v>
+        <v>0.01081282624906786</v>
       </c>
       <c r="R9">
-        <v>0.6125070848290195</v>
+        <v>0.06485374362644243</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1517,55 +1499,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>22113.2</v>
+        <v>38930.2</v>
       </c>
       <c r="V9">
-        <v>2.679348616294286</v>
+        <v>5.80614466815809</v>
       </c>
       <c r="W9">
-        <v>0.07810874425399729</v>
+        <v>0.0815616290437904</v>
       </c>
       <c r="X9">
-        <v>0.07683897905777268</v>
+        <v>0.08597611421999934</v>
       </c>
       <c r="Y9">
-        <v>0.001269765196224612</v>
+        <v>-0.004414485176208946</v>
       </c>
       <c r="Z9">
-        <v>0.2346599864358592</v>
+        <v>0.6821771279523319</v>
       </c>
       <c r="AA9">
-        <v>0.0003381373358687753</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.04335522759391812</v>
+        <v>0.03686573613606481</v>
       </c>
       <c r="AC9">
-        <v>-0.04301709025804935</v>
+        <v>-0.03686573613606481</v>
       </c>
       <c r="AD9">
-        <v>16874.9</v>
+        <v>19078.2</v>
       </c>
       <c r="AE9">
-        <v>352.6212836016549</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>17227.52128360166</v>
+        <v>19078.2</v>
       </c>
       <c r="AG9">
-        <v>-4885.678716398343</v>
+        <v>-19852</v>
       </c>
       <c r="AH9">
-        <v>0.6761002207064123</v>
+        <v>0.7399469421949176</v>
       </c>
       <c r="AI9">
-        <v>0.5421069941474297</v>
+        <v>0.5364876987061777</v>
       </c>
       <c r="AJ9">
-        <v>-1.450823411329111</v>
+        <v>1.510002281889405</v>
       </c>
       <c r="AK9">
-        <v>-0.5054697026757305</v>
+        <v>5.892724628216929</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1573,11 +1555,127 @@
       <c r="AM9">
         <v>0</v>
       </c>
-      <c r="AN9">
-        <v>210.4102244389028</v>
-      </c>
-      <c r="AP9">
-        <v>-60.91868723688707</v>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Volksbank Vorarlberg e. Gen. (WBAG:VVPS)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Bank (Money Center)</t>
+        </is>
+      </c>
+      <c r="D10">
+        <v>-0.0786</v>
+      </c>
+      <c r="E10">
+        <v>-0.258</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>2.43</v>
+      </c>
+      <c r="L10">
+        <v>0.05388026607538803</v>
+      </c>
+      <c r="M10">
+        <v>7.094</v>
+      </c>
+      <c r="N10">
+        <v>1.113657770800628</v>
+      </c>
+      <c r="O10">
+        <v>2.919341563786008</v>
+      </c>
+      <c r="P10">
+        <v>0.214</v>
+      </c>
+      <c r="Q10">
+        <v>0.03359497645211931</v>
+      </c>
+      <c r="R10">
+        <v>0.08806584362139917</v>
+      </c>
+      <c r="S10">
+        <v>6.88</v>
+      </c>
+      <c r="T10">
+        <v>0.9698336622497885</v>
+      </c>
+      <c r="U10">
+        <v>16.2</v>
+      </c>
+      <c r="V10">
+        <v>2.543171114599686</v>
+      </c>
+      <c r="W10">
+        <v>0.01131284916201117</v>
+      </c>
+      <c r="X10">
+        <v>1.987371772800032</v>
+      </c>
+      <c r="Y10">
+        <v>-1.976058923638021</v>
+      </c>
+      <c r="Z10">
+        <v>0.0560875512995896</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.04337494274808493</v>
+      </c>
+      <c r="AC10">
+        <v>-0.04337494274808493</v>
+      </c>
+      <c r="AD10">
+        <v>678.2</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>678.2</v>
+      </c>
+      <c r="AG10">
+        <v>662</v>
+      </c>
+      <c r="AH10">
+        <v>0.9906948887622887</v>
+      </c>
+      <c r="AI10">
+        <v>0.7639107907186303</v>
+      </c>
+      <c r="AJ10">
+        <v>0.9904693508086838</v>
+      </c>
+      <c r="AK10">
+        <v>0.7595227168425883</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
